--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1033.133315255496</v>
+        <v>1582.403106595918</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.45846504503518</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>7.932600280313991</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>516.0400000000055</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4499999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.441553087125037</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.69023945846941</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>36.56872016525512</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.46981780704569</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,15 +1157,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>198.0300000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>195.3600000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>201.2350000000007</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>204.3350000000007</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>209.0600000000007</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.3400000000008</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>163.7800000000003</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>165.6200000000008</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>173.6150000000008</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>173.65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>96.65000000000001</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>101.115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>99.33000000000051</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>108.9150000000005</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0750000000005</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>65.71999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>59.43999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.37499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>64.17999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>63.18499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>198.0300000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>195.3600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>201.2350000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>204.3350000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>209.0600000000007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>48.03000000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36000000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>51.23500000000067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>54.33500000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>59.06000000000066</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,12 +2419,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
